--- a/heartowiki.xlsx
+++ b/heartowiki.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="506">
   <si>
     <t>도감 버전</t>
   </si>
@@ -1162,6 +1162,9 @@
     <t>버섯 파이 레시피</t>
   </si>
   <si>
+    <t>타운키퍼 레벨 8 달성 후 생활가이드 '마을이야기' 해금 (마시모 히든 퀘스트 클리어시 해금)</t>
+  </si>
+  <si>
     <t>느타리버섯 파이</t>
   </si>
   <si>
@@ -1213,6 +1216,9 @@
     <t>롤케이크 레시피</t>
   </si>
   <si>
+    <t>비나 눈이 오는 날 도리스에게 구매</t>
+  </si>
+  <si>
     <t>레드 롤케이크</t>
   </si>
   <si>
@@ -1237,14 +1243,12 @@
 달걀 ×1</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>그린 롤케이크</t>
   </si>
   <si>
-    <t>?? ×2
-초록색 사탕 ×2</t>
+    <t>초록색 사탕 ×2
+밀 ×1
+달걀 ×1</t>
   </si>
   <si>
     <t>스카이 롤케이크</t>
@@ -1482,6 +1486,19 @@
   </si>
   <si>
     <t>미트소스 가지 그라탱 레시피</t>
+  </si>
+  <si>
+    <t>킹크랩찜</t>
+  </si>
+  <si>
+    <t>킹크랩 ×3
+버터 ×1</t>
+  </si>
+  <si>
+    <t>킹크랩찜 레시피</t>
+  </si>
+  <si>
+    <t>황금 킹크랩찜</t>
   </si>
   <si>
     <t>얼음컵 커피</t>
@@ -1604,6 +1621,9 @@
     <t>잔디케이크</t>
   </si>
   <si>
+    <t>획득불가</t>
+  </si>
+  <si>
     <t>쌀가루 ×1
 우유 ×1
 말차가루 ×1
@@ -1611,6 +1631,9 @@
   </si>
   <si>
     <t>잔디케이크 레시피</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>중국 서버 한정 7일 출석 보상. 글로벌 서버에서는 도감에만 있을 뿐 제작이 불가능함.</t>
@@ -1623,7 +1646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1652,6 +1675,16 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="&quot;Pretendard JP&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="&quot;Pretendard JP&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1696,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1751,6 +1784,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6940,10 +6982,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.88"/>
-    <col customWidth="1" min="2" max="2" width="15.63"/>
-    <col customWidth="1" min="3" max="3" width="26.88"/>
-    <col customWidth="1" min="4" max="4" width="4.75"/>
-    <col customWidth="1" min="5" max="5" width="59.0"/>
+    <col customWidth="1" min="2" max="3" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="26.88"/>
+    <col customWidth="1" min="5" max="5" width="4.75"/>
+    <col customWidth="1" min="6" max="6" width="62.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6951,15 +6993,18 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6967,999 +7012,1248 @@
       <c r="A2" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="17">
+      <c r="E2" s="17">
         <v>20.0</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="17">
+      <c r="E3" s="17">
         <v>30.0</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="18">
+      <c r="E4" s="18">
         <v>160.0</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E5" s="18">
         <v>250.0</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="18">
         <v>180.0</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="18">
+      <c r="E7" s="18">
         <v>170.0</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="18">
+      <c r="E8" s="18">
         <v>270.0</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="18">
+      <c r="E9" s="18">
         <v>270.0</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="18">
         <v>1580.0</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="18">
+      <c r="E11" s="18">
         <v>280.0</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="18">
+      <c r="E12" s="18">
         <v>2020.0</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="18">
+      <c r="E13" s="18">
         <v>90.0</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="18">
+      <c r="E14" s="18">
         <v>310.0</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="18">
+      <c r="E15" s="18">
         <v>480.0</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D16" s="18">
+      <c r="E16" s="18">
         <v>180.0</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D17" s="18">
+      <c r="E17" s="18">
         <v>180.0</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D18" s="18">
+      <c r="E18" s="18">
         <v>180.0</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="18">
+      <c r="E19" s="18">
         <v>180.0</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="18">
+      <c r="E20" s="18">
         <v>180.0</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="18">
+      <c r="E21" s="18">
         <v>500.0</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="F21" s="18" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="17" t="s">
         <v>381</v>
       </c>
+      <c r="B22" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C22" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="18">
+      <c r="E22" s="18">
         <v>500.0</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="17" t="s">
         <v>383</v>
       </c>
+      <c r="B23" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C23" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D23" s="18">
+      <c r="E23" s="18">
         <v>500.0</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B24" s="17" t="s">
         <v>385</v>
       </c>
+      <c r="B24" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C24" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="18">
+      <c r="E24" s="18">
         <v>500.0</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B25" s="17" t="s">
         <v>387</v>
       </c>
+      <c r="B25" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C25" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="18">
+      <c r="E25" s="18">
         <v>500.0</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B26" s="17" t="s">
         <v>389</v>
       </c>
+      <c r="B26" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C26" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="18">
+      <c r="E26" s="18">
         <v>830.0</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="B27" s="17" t="s">
         <v>391</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1.0</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="18">
         <v>550.0</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="F27" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="E28" s="18">
+        <v>670.0</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="18">
-        <v>670.0</v>
-      </c>
-      <c r="E28" s="19"/>
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1.0</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D29" s="18">
+        <v>398</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="18">
         <v>670.0</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="F29" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1.0</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>400</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="18">
+        <v>670.0</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="B31" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="18">
         <v>670.0</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="F31" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="B32" s="17" t="s">
         <v>403</v>
       </c>
+      <c r="B32" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C32" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" s="18">
+        <v>404</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="18">
         <v>570.0</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="F32" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="17" t="s">
         <v>405</v>
       </c>
+      <c r="B33" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C33" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D33" s="18">
+        <v>406</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="18">
         <v>570.0</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="F33" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B34" s="17" t="s">
         <v>407</v>
       </c>
+      <c r="B34" s="18">
+        <v>1.0</v>
+      </c>
       <c r="C34" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D34" s="18">
+        <v>408</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="18">
         <v>570.0</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="F34" s="18" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B35" s="17" t="s">
         <v>409</v>
+      </c>
+      <c r="B35" s="18">
+        <v>2.0</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E35" s="18">
         <v>290.0</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="18">
+      <c r="E36" s="18">
         <v>300.0</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" s="17" t="s">
         <v>414</v>
+      </c>
+      <c r="B37" s="18">
+        <v>2.0</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="18">
         <v>520.0</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>416</v>
+      <c r="F37" s="18" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" s="17" t="s">
         <v>418</v>
       </c>
+      <c r="B38" s="18">
+        <v>3.0</v>
+      </c>
       <c r="C38" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D38" s="18">
+        <v>419</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="18">
         <v>490.0</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B39" s="17" t="s">
         <v>420</v>
       </c>
+      <c r="B39" s="18">
+        <v>3.0</v>
+      </c>
       <c r="C39" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="D39" s="18">
+        <v>421</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="18">
         <v>640.0</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B40" s="17" t="s">
         <v>422</v>
       </c>
+      <c r="B40" s="18">
+        <v>3.0</v>
+      </c>
       <c r="C40" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D40" s="18">
+        <v>423</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="18">
         <v>900.0</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" s="17" t="s">
         <v>424</v>
+      </c>
+      <c r="B41" s="18">
+        <v>4.0</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="18">
         <v>780.0</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B42" s="17" t="s">
         <v>427</v>
+      </c>
+      <c r="B42" s="18">
+        <v>4.0</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E42" s="18">
         <v>670.0</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B43" s="17" t="s">
         <v>430</v>
+      </c>
+      <c r="B43" s="18">
+        <v>5.0</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="18">
         <v>730.0</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="17" t="s">
         <v>433</v>
+      </c>
+      <c r="B44" s="18">
+        <v>5.0</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="18">
         <v>840.0</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" s="17" t="s">
         <v>436</v>
+      </c>
+      <c r="B45" s="18">
+        <v>5.0</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="18">
         <v>1340.0</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B46" s="17" t="s">
         <v>439</v>
+      </c>
+      <c r="B46" s="18">
+        <v>6.0</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="18">
         <v>410.0</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B47" s="17" t="s">
         <v>442</v>
+      </c>
+      <c r="B47" s="18">
+        <v>6.0</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="18">
         <v>530.0</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="17" t="s">
         <v>445</v>
+      </c>
+      <c r="B48" s="18">
+        <v>7.0</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="18">
         <v>2260.0</v>
       </c>
-      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B49" s="17" t="s">
         <v>448</v>
+      </c>
+      <c r="B49" s="18">
+        <v>7.0</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E49" s="18">
         <v>710.0</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B50" s="17" t="s">
         <v>451</v>
+      </c>
+      <c r="B50" s="18">
+        <v>8.0</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="18">
         <v>850.0</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51">
       <c r="A51" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="18">
+      <c r="E51" s="18">
         <v>1310.0</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>455</v>
+      <c r="F51" s="18" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B52" s="17" t="s">
         <v>457</v>
+      </c>
+      <c r="B52" s="18">
+        <v>8.0</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E52" s="18">
         <v>1350.0</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B53" s="17" t="s">
         <v>460</v>
+      </c>
+      <c r="B53" s="18">
+        <v>9.0</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="E53" s="18">
         <v>1760.0</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B54" s="17" t="s">
         <v>463</v>
+      </c>
+      <c r="B54" s="18">
+        <v>9.0</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E54" s="18">
         <v>1230.0</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D55" s="18">
-        <v>280.0</v>
-      </c>
-      <c r="E55" s="18" t="s">
+      <c r="D55" s="21" t="s">
         <v>468</v>
       </c>
+      <c r="E55" s="21">
+        <v>1990.0</v>
+      </c>
+      <c r="F55" s="22"/>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D56" s="18">
-        <v>280.0</v>
-      </c>
-      <c r="E56" s="18" t="s">
+      <c r="D56" s="20" t="s">
         <v>468</v>
       </c>
+      <c r="E56" s="21">
+        <v>2980.0</v>
+      </c>
+      <c r="F56" s="22"/>
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="E57" s="18">
+        <v>280.0</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="D57" s="18">
-        <v>630.0</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D58" s="18">
-        <v>340.0</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>468</v>
+      <c r="D58" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E58" s="18">
+        <v>280.0</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D59" s="18">
-        <v>330.0</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>468</v>
+      <c r="E59" s="18">
+        <v>630.0</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D60" s="18">
-        <v>330.0</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>468</v>
+      <c r="E60" s="18">
+        <v>340.0</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D61" s="18">
-        <v>350.0</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>468</v>
+      <c r="D61" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E61" s="18">
+        <v>330.0</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D62" s="18">
-        <v>360.0</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>468</v>
+      <c r="E62" s="18">
+        <v>330.0</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="B63" s="17" t="s">
         <v>487</v>
       </c>
+      <c r="B63" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="C63" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D63" s="18">
-        <v>360.0</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>468</v>
+        <v>488</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E63" s="18">
+        <v>350.0</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="B64" s="17" t="s">
         <v>489</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="D64" s="18">
-        <v>1630.0</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>468</v>
+      <c r="D64" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" s="18">
+        <v>360.0</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="D65" s="18">
-        <v>130.0</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>494</v>
+      <c r="D65" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E65" s="18">
+        <v>360.0</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="E66" s="18">
+        <v>1630.0</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="B67" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="E66" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>498</v>
+      </c>
+      <c r="E67" s="18">
+        <v>130.0</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/heartowiki.xlsx
+++ b/heartowiki.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="504">
   <si>
     <t>도감 버전</t>
   </si>
@@ -401,9 +401,6 @@
     <t>황새치</t>
   </si>
   <si>
-    <t>고래바다</t>
-  </si>
-  <si>
     <t>청상아리</t>
   </si>
   <si>
@@ -978,9 +975,6 @@
   </si>
   <si>
     <t>메넬리우스나비</t>
-  </si>
-  <si>
-    <t>영혼의 참나무 숲</t>
   </si>
   <si>
     <t>티폰쇠똥구리</t>
@@ -4078,8 +4072,8 @@
       <c r="B84" s="4">
         <v>10.0</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>128</v>
+      <c r="C84" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>41</v>
@@ -4097,7 +4091,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="4">
         <v>10.0</v>
@@ -4121,7 +4115,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="4">
         <v>11.0</v>
@@ -4145,7 +4139,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="4">
         <v>11.0</v>
@@ -4169,7 +4163,7 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="4">
         <v>11.0</v>
@@ -4193,7 +4187,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="4">
         <v>11.0</v>
@@ -4217,7 +4211,7 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="4">
         <v>12.0</v>
@@ -4241,7 +4235,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B91" s="4">
         <v>12.0</v>
@@ -4265,7 +4259,7 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="4">
         <v>12.0</v>
@@ -4289,13 +4283,13 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="4">
         <v>12.0</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>128</v>
+      <c r="C93" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>41</v>
@@ -4313,7 +4307,7 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="4">
         <v>12.0</v>
@@ -4337,7 +4331,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="4">
         <v>13.0</v>
@@ -4361,13 +4355,13 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="4">
         <v>13.0</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>128</v>
+      <c r="C96" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
@@ -4385,7 +4379,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97" s="4">
         <v>14.0</v>
@@ -4409,7 +4403,7 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" s="4">
         <v>14.0</v>
@@ -4433,10 +4427,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>52</v>
@@ -4455,10 +4449,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -4477,10 +4471,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>52</v>
@@ -4499,10 +4493,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>52</v>
@@ -4521,13 +4515,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="9">
@@ -4540,7 +4534,7 @@
         <v>15</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4558,6 +4552,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.25"/>
     <col customWidth="1" min="4" max="4" width="15.75"/>
   </cols>
   <sheetData>
@@ -4572,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>8</v>
@@ -4583,13 +4578,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="10">
         <v>1.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
@@ -4601,13 +4596,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10">
         <v>1.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
@@ -4619,13 +4614,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10">
         <v>1.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
@@ -4637,13 +4632,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="10">
         <v>1.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10" t="s">
@@ -4655,13 +4650,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="10">
         <v>1.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
@@ -4673,13 +4668,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="10">
         <v>1.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
@@ -4691,13 +4686,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="10">
         <v>1.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
@@ -4709,13 +4704,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="10">
         <v>1.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
@@ -4727,13 +4722,13 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="10">
         <v>1.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
@@ -4745,13 +4740,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="10">
         <v>1.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
@@ -4763,13 +4758,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="10">
         <v>1.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
@@ -4781,7 +4776,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="10">
         <v>1.0</v>
@@ -4799,13 +4794,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="10">
         <v>1.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
@@ -4817,13 +4812,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="10">
         <v>2.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
@@ -4835,13 +4830,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
@@ -4853,13 +4848,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="10">
         <v>2.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
@@ -4871,13 +4866,13 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="10">
         <v>2.0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
@@ -4889,13 +4884,13 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="10">
         <v>2.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
@@ -4907,13 +4902,13 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="10">
         <v>2.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
@@ -4925,7 +4920,7 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="10">
         <v>2.0</v>
@@ -4943,7 +4938,7 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="10">
         <v>3.0</v>
@@ -4961,13 +4956,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="10">
         <v>3.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
@@ -4979,16 +4974,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="10">
         <v>3.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>14</v>
@@ -4999,16 +4994,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="10">
         <v>3.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>14</v>
@@ -5019,13 +5014,13 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="10">
         <v>3.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
@@ -5037,13 +5032,13 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="10">
         <v>3.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
@@ -5055,7 +5050,7 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="10">
         <v>3.0</v>
@@ -5073,7 +5068,7 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="10">
         <v>3.0</v>
@@ -5091,16 +5086,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="10">
         <v>4.0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>14</v>
@@ -5111,16 +5106,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="10">
         <v>4.0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>14</v>
@@ -5131,16 +5126,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="10">
         <v>4.0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>14</v>
@@ -5151,16 +5146,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="10">
         <v>4.0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>14</v>
@@ -5171,16 +5166,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="10">
         <v>4.0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>14</v>
@@ -5191,13 +5186,13 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="10">
         <v>4.0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>17</v>
@@ -5211,16 +5206,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="10">
         <v>4.0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>14</v>
@@ -5231,7 +5226,7 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="10">
         <v>5.0</v>
@@ -5240,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>14</v>
@@ -5251,16 +5246,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" s="10">
         <v>5.0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>14</v>
@@ -5271,16 +5266,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="10">
         <v>5.0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>14</v>
@@ -5291,16 +5286,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" s="10">
         <v>5.0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>14</v>
@@ -5311,13 +5306,13 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="10">
         <v>5.0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="10" t="s">
@@ -5329,16 +5324,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="10">
         <v>5.0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>14</v>
@@ -5349,13 +5344,13 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="10">
         <v>6.0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="10" t="s">
@@ -5367,16 +5362,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="10">
         <v>6.0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>14</v>
@@ -5387,16 +5382,16 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="10">
         <v>6.0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>14</v>
@@ -5407,16 +5402,16 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="10">
         <v>6.0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>14</v>
@@ -5427,7 +5422,7 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="10">
         <v>7.0</v>
@@ -5436,7 +5431,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>14</v>
@@ -5447,16 +5442,16 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="10">
         <v>7.0</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>14</v>
@@ -5467,13 +5462,13 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="10">
         <v>7.0</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="10" t="s">
@@ -5485,16 +5480,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="10">
         <v>7.0</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>14</v>
@@ -5505,13 +5500,13 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="10">
         <v>7.0</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="10" t="s">
@@ -5523,16 +5518,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="10">
         <v>8.0</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>14</v>
@@ -5543,16 +5538,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="10">
         <v>8.0</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>14</v>
@@ -5563,13 +5558,13 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" s="10">
         <v>8.0</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="10" t="s">
@@ -5581,16 +5576,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="10">
         <v>8.0</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>14</v>
@@ -5601,13 +5596,13 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="10">
         <v>9.0</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="10" t="s">
@@ -5619,16 +5614,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" s="10">
         <v>9.0</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>14</v>
@@ -5639,13 +5634,13 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B58" s="10">
         <v>9.0</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="10" t="s">
@@ -5657,13 +5652,13 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B59" s="10">
         <v>9.0</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>17</v>
@@ -5677,16 +5672,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="10">
         <v>9.0</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>14</v>
@@ -5697,16 +5692,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="10">
         <v>10.0</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>14</v>
@@ -5717,16 +5712,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62" s="10">
         <v>10.0</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>14</v>
@@ -5737,16 +5732,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" s="10">
         <v>10.0</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>14</v>
@@ -5757,16 +5752,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B64" s="10">
         <v>10.0</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>14</v>
@@ -5777,16 +5772,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>14</v>
@@ -5797,16 +5792,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>14</v>
@@ -5817,16 +5812,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>14</v>
@@ -5837,16 +5832,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>14</v>
@@ -5857,16 +5852,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="D69" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>14</v>
@@ -5909,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>8</v>
@@ -5920,13 +5915,13 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="13">
         <v>1.0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
@@ -5938,13 +5933,13 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
@@ -5956,13 +5951,13 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="13">
         <v>1.0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
@@ -5974,13 +5969,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15" t="s">
@@ -5992,13 +5987,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="13">
         <v>1.0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15" t="s">
@@ -6010,13 +6005,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="13">
         <v>1.0</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
@@ -6028,13 +6023,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="13">
         <v>1.0</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
@@ -6046,13 +6041,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="13">
         <v>1.0</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
@@ -6064,16 +6059,16 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="13">
         <v>1.0</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>14</v>
@@ -6084,16 +6079,16 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="13">
         <v>1.0</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>14</v>
@@ -6104,13 +6099,13 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="13">
         <v>1.0</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
@@ -6122,13 +6117,13 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="13">
         <v>2.0</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
@@ -6140,13 +6135,13 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" s="13">
         <v>2.0</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
@@ -6158,16 +6153,16 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="13">
         <v>2.0</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>14</v>
@@ -6178,16 +6173,16 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="13">
         <v>2.0</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>14</v>
@@ -6198,16 +6193,16 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="13">
         <v>2.0</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>14</v>
@@ -6218,16 +6213,16 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="13">
         <v>2.0</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>14</v>
@@ -6238,7 +6233,7 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="13">
         <v>2.0</v>
@@ -6256,13 +6251,13 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="13">
         <v>2.0</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
@@ -6274,13 +6269,13 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="13">
         <v>3.0</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
@@ -6292,33 +6287,33 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="13">
         <v>3.0</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="13">
         <v>3.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
@@ -6330,13 +6325,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" s="13">
         <v>3.0</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
@@ -6348,31 +6343,31 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="13">
         <v>3.0</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B26" s="13">
         <v>3.0</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
@@ -6384,13 +6379,13 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="13">
         <v>3.0</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
@@ -6402,19 +6397,19 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="13">
         <v>3.0</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>15</v>
@@ -6422,13 +6417,13 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="13">
         <v>4.0</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
@@ -6440,36 +6435,36 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="13">
         <v>4.0</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="13">
         <v>4.0</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>14</v>
@@ -6480,16 +6475,16 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="13">
         <v>4.0</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>83</v>
@@ -6500,13 +6495,13 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" s="13">
         <v>4.0</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
@@ -6518,31 +6513,31 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="13">
         <v>4.0</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="13">
         <v>5.0</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
@@ -6554,52 +6549,52 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="13">
         <v>5.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="13">
         <v>5.0</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B38" s="13">
         <v>5.0</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>14</v>
@@ -6610,16 +6605,16 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" s="13">
         <v>5.0</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>83</v>
@@ -6630,55 +6625,55 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" s="13">
         <v>5.0</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B41" s="13">
         <v>5.0</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" s="13">
         <v>6.0</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>15</v>
@@ -6686,19 +6681,19 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="13">
         <v>6.0</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>66</v>
@@ -6706,39 +6701,39 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="13">
         <v>6.0</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" s="13">
         <v>6.0</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>15</v>
@@ -6746,7 +6741,7 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" s="13">
         <v>6.0</v>
@@ -6764,13 +6759,13 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" s="13">
         <v>7.0</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="15" t="s">
@@ -6782,17 +6777,17 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="13">
         <v>7.0</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>15</v>
@@ -6800,17 +6795,17 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B49" s="13">
         <v>7.0</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>15</v>
@@ -6818,19 +6813,19 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B50" s="13">
         <v>7.0</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>66</v>
@@ -6838,33 +6833,33 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B51" s="13">
         <v>7.0</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B52" s="13">
         <v>7.0</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="15" t="s">
@@ -6876,13 +6871,13 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
@@ -6894,13 +6889,13 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
@@ -6912,13 +6907,13 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
@@ -6930,13 +6925,13 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
@@ -6948,16 +6943,16 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>14</v>
@@ -6996,10 +6991,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -7010,14 +7005,14 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2" s="18">
         <v>1.0</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" s="17">
         <v>20.0</v>
@@ -7026,14 +7021,14 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="18">
         <v>1.0</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E3" s="17">
         <v>30.0</v>
@@ -7042,16 +7037,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B4" s="18">
         <v>1.0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E4" s="18">
         <v>160.0</v>
@@ -7060,16 +7055,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="18">
         <v>1.0</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" s="18">
         <v>250.0</v>
@@ -7078,16 +7073,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" s="18">
         <v>1.0</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="18">
         <v>180.0</v>
@@ -7096,16 +7091,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" s="18">
         <v>1.0</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E7" s="18">
         <v>170.0</v>
@@ -7114,16 +7109,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B8" s="18">
         <v>1.0</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="18">
         <v>270.0</v>
@@ -7132,16 +7127,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="18">
         <v>1.0</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="18">
         <v>270.0</v>
@@ -7150,16 +7145,16 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="18">
         <v>1.0</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="18">
         <v>1580.0</v>
@@ -7168,16 +7163,16 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B11" s="18">
         <v>1.0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E11" s="18">
         <v>280.0</v>
@@ -7186,16 +7181,16 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B12" s="18">
         <v>1.0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E12" s="18">
         <v>2020.0</v>
@@ -7204,16 +7199,16 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B13" s="18">
         <v>1.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E13" s="18">
         <v>90.0</v>
@@ -7222,16 +7217,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B14" s="18">
         <v>1.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E14" s="18">
         <v>310.0</v>
@@ -7240,16 +7235,16 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B15" s="18">
         <v>1.0</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E15" s="18">
         <v>480.0</v>
@@ -7258,16 +7253,16 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B16" s="18">
         <v>1.0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E16" s="18">
         <v>180.0</v>
@@ -7276,16 +7271,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B17" s="18">
         <v>1.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E17" s="18">
         <v>180.0</v>
@@ -7294,16 +7289,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B18" s="18">
         <v>1.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E18" s="18">
         <v>180.0</v>
@@ -7312,16 +7307,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B19" s="18">
         <v>1.0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E19" s="18">
         <v>180.0</v>
@@ -7330,16 +7325,16 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B20" s="18">
         <v>1.0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E20" s="18">
         <v>180.0</v>
@@ -7348,36 +7343,36 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B21" s="18">
         <v>1.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E21" s="18">
         <v>500.0</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B22" s="18">
         <v>1.0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E22" s="18">
         <v>500.0</v>
@@ -7386,16 +7381,16 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B23" s="18">
         <v>1.0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E23" s="18">
         <v>500.0</v>
@@ -7404,16 +7399,16 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B24" s="18">
         <v>1.0</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E24" s="18">
         <v>500.0</v>
@@ -7422,16 +7417,16 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B25" s="18">
         <v>1.0</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E25" s="18">
         <v>500.0</v>
@@ -7440,16 +7435,16 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B26" s="18">
         <v>1.0</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E26" s="18">
         <v>830.0</v>
@@ -7458,176 +7453,176 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" s="18">
         <v>1.0</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E27" s="18">
         <v>550.0</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B28" s="18">
         <v>1.0</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E28" s="18">
         <v>670.0</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B29" s="18">
         <v>1.0</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E29" s="18">
         <v>670.0</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B30" s="18">
         <v>1.0</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E30" s="18">
         <v>670.0</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B31" s="18">
         <v>1.0</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E31" s="18">
         <v>670.0</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B32" s="18">
         <v>1.0</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E32" s="18">
         <v>570.0</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B33" s="18">
         <v>1.0</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E33" s="18">
         <v>570.0</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B34" s="18">
         <v>1.0</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E34" s="18">
         <v>570.0</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B35" s="18">
         <v>2.0</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E35" s="18">
         <v>290.0</v>
@@ -7636,16 +7631,16 @@
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B36" s="18">
         <v>2.0</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E36" s="18">
         <v>300.0</v>
@@ -7654,36 +7649,36 @@
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B37" s="18">
         <v>2.0</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E37" s="18">
         <v>520.0</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B38" s="18">
         <v>3.0</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E38" s="18">
         <v>490.0</v>
@@ -7692,16 +7687,16 @@
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B39" s="18">
         <v>3.0</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E39" s="18">
         <v>640.0</v>
@@ -7710,16 +7705,16 @@
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B40" s="18">
         <v>3.0</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E40" s="18">
         <v>900.0</v>
@@ -7728,16 +7723,16 @@
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B41" s="18">
         <v>4.0</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E41" s="18">
         <v>780.0</v>
@@ -7746,16 +7741,16 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B42" s="18">
         <v>4.0</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E42" s="18">
         <v>670.0</v>
@@ -7764,16 +7759,16 @@
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B43" s="18">
         <v>5.0</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E43" s="18">
         <v>730.0</v>
@@ -7782,16 +7777,16 @@
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B44" s="18">
         <v>5.0</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E44" s="18">
         <v>840.0</v>
@@ -7800,16 +7795,16 @@
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B45" s="18">
         <v>5.0</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E45" s="18">
         <v>1340.0</v>
@@ -7818,16 +7813,16 @@
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B46" s="18">
         <v>6.0</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E46" s="18">
         <v>410.0</v>
@@ -7836,16 +7831,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B47" s="18">
         <v>6.0</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E47" s="18">
         <v>530.0</v>
@@ -7854,16 +7849,16 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B48" s="18">
         <v>7.0</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E48" s="18">
         <v>2260.0</v>
@@ -7872,16 +7867,16 @@
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B49" s="18">
         <v>7.0</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E49" s="18">
         <v>710.0</v>
@@ -7890,16 +7885,16 @@
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B50" s="18">
         <v>8.0</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E50" s="18">
         <v>850.0</v>
@@ -7908,36 +7903,36 @@
     </row>
     <row r="51">
       <c r="A51" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B51" s="18">
         <v>8.0</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E51" s="18">
         <v>1310.0</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B52" s="18">
         <v>8.0</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E52" s="18">
         <v>1350.0</v>
@@ -7946,16 +7941,16 @@
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B53" s="18">
         <v>9.0</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E53" s="18">
         <v>1760.0</v>
@@ -7964,16 +7959,16 @@
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B54" s="18">
         <v>9.0</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E54" s="18">
         <v>1230.0</v>
@@ -7982,16 +7977,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B55" s="21">
         <v>10.0</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E55" s="21">
         <v>1990.0</v>
@@ -8000,16 +7995,16 @@
     </row>
     <row r="56">
       <c r="A56" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B56" s="21">
         <v>10.0</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E56" s="21">
         <v>2980.0</v>
@@ -8018,242 +8013,242 @@
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>472</v>
       </c>
       <c r="E57" s="18">
         <v>280.0</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E58" s="18">
         <v>280.0</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>476</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>478</v>
       </c>
       <c r="E59" s="18">
         <v>630.0</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>479</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>481</v>
       </c>
       <c r="E60" s="18">
         <v>340.0</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>482</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>484</v>
       </c>
       <c r="E61" s="18">
         <v>330.0</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E62" s="18">
         <v>330.0</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E63" s="18">
         <v>350.0</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E64" s="18">
         <v>360.0</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E65" s="18">
         <v>360.0</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>493</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>495</v>
       </c>
       <c r="E66" s="18">
         <v>1630.0</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>498</v>
       </c>
       <c r="E67" s="18">
         <v>130.0</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="E68" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="F68" s="18" t="s">
         <v>503</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/heartowiki.xlsx
+++ b/heartowiki.xlsx
@@ -107,6 +107,15 @@
     <t>고요한 강</t>
   </si>
   <si>
+    <t>틸라피아</t>
+  </si>
+  <si>
+    <t>텐치</t>
+  </si>
+  <si>
+    <t>숲속 호수</t>
+  </si>
+  <si>
     <t>극지연어</t>
   </si>
   <si>
@@ -155,21 +164,15 @@
     <t>동해</t>
   </si>
   <si>
-    <t>틸라피아</t>
-  </si>
-  <si>
-    <t>텐치</t>
-  </si>
-  <si>
-    <t>숲속 호수</t>
-  </si>
-  <si>
     <t>전갱이</t>
   </si>
   <si>
     <t>고래 바다</t>
   </si>
   <si>
+    <t>대서양은상어</t>
+  </si>
+  <si>
     <t>바다가시고기</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>돌마자</t>
   </si>
   <si>
+    <t>머드개복치</t>
+  </si>
+  <si>
     <t>바다빙어</t>
   </si>
   <si>
@@ -197,12 +203,6 @@
     <t>매화농어</t>
   </si>
   <si>
-    <t>대서양은상어</t>
-  </si>
-  <si>
-    <t>머드개복치</t>
-  </si>
-  <si>
     <t>노란전갱이</t>
   </si>
   <si>
@@ -233,16 +233,31 @@
     <t>유럽민물가재</t>
   </si>
   <si>
+    <t>참문어</t>
+  </si>
+  <si>
+    <t>대서양연어</t>
+  </si>
+  <si>
+    <t>0-6/12-24</t>
+  </si>
+  <si>
+    <t>대서양난쟁이문어</t>
+  </si>
+  <si>
     <t>소라게</t>
   </si>
   <si>
     <t>흰동가리</t>
   </si>
   <si>
-    <t>참문어</t>
-  </si>
-  <si>
-    <t>대서양난쟁이문어</t>
+    <t>큰입배스</t>
+  </si>
+  <si>
+    <t>유럽잉어</t>
+  </si>
+  <si>
+    <t>민물대구</t>
   </si>
   <si>
     <t>망둥어</t>
@@ -257,48 +272,33 @@
     <t>유럽가자미</t>
   </si>
   <si>
+    <t>레드벨리피라냐</t>
+  </si>
+  <si>
     <t>나비잉어</t>
   </si>
   <si>
     <t>0-12/18-24</t>
   </si>
   <si>
-    <t>대서양연어</t>
-  </si>
-  <si>
-    <t>0-6/12-24</t>
-  </si>
-  <si>
-    <t>큰입배스</t>
-  </si>
-  <si>
-    <t>유럽잉어</t>
-  </si>
-  <si>
-    <t>민물대구</t>
-  </si>
-  <si>
-    <t>레드벨리피라냐</t>
+    <t>민물베도라치</t>
   </si>
   <si>
     <t>송어</t>
   </si>
   <si>
+    <t>루드</t>
+  </si>
+  <si>
+    <t>대서양고등어</t>
+  </si>
+  <si>
+    <t>유럽가재</t>
+  </si>
+  <si>
     <t>유럽날오징어</t>
   </si>
   <si>
-    <t>민물베도라치</t>
-  </si>
-  <si>
-    <t>루드</t>
-  </si>
-  <si>
-    <t>대서양고등어</t>
-  </si>
-  <si>
-    <t>유럽가재</t>
-  </si>
-  <si>
     <t>큰진주조개</t>
   </si>
   <si>
@@ -335,13 +335,16 @@
     <t>둑중개</t>
   </si>
   <si>
+    <t>산갈치</t>
+  </si>
+  <si>
+    <t>검은점돔</t>
+  </si>
+  <si>
     <t>유럽장어</t>
   </si>
   <si>
-    <t>검은점돔</t>
-  </si>
-  <si>
-    <t>산갈치</t>
+    <t>황금킹크랩</t>
   </si>
   <si>
     <t>펄고기</t>
@@ -350,36 +353,33 @@
     <t>0-12</t>
   </si>
   <si>
+    <t>북유럽파란가재</t>
+  </si>
+  <si>
     <t>금붕어</t>
   </si>
   <si>
-    <t>북유럽파란가재</t>
+    <t>킹크랩</t>
   </si>
   <si>
     <t>해덕대구</t>
   </si>
   <si>
-    <t>킹크랩</t>
-  </si>
-  <si>
-    <t>황금킹크랩</t>
+    <t>강꼬치고기</t>
+  </si>
+  <si>
+    <t>펌프킨시드</t>
   </si>
   <si>
     <t>후첸</t>
   </si>
   <si>
-    <t>강꼬치고기</t>
-  </si>
-  <si>
-    <t>펌프킨시드</t>
+    <t>참다랑어</t>
   </si>
   <si>
     <t>개복치</t>
   </si>
   <si>
-    <t>참다랑어</t>
-  </si>
-  <si>
     <t>붉은개복치</t>
   </si>
   <si>
@@ -395,12 +395,12 @@
     <t>중간</t>
   </si>
   <si>
+    <t>황새치</t>
+  </si>
+  <si>
     <t>귀상어</t>
   </si>
   <si>
-    <t>황새치</t>
-  </si>
-  <si>
     <t>청상아리</t>
   </si>
   <si>
@@ -470,49 +470,67 @@
     <t>세부위치</t>
   </si>
   <si>
+    <t>꼬까울새</t>
+  </si>
+  <si>
+    <t>도심</t>
+  </si>
+  <si>
+    <t>노랑배박새</t>
+  </si>
+  <si>
+    <t>온천산</t>
+  </si>
+  <si>
+    <t>굴뚝새</t>
+  </si>
+  <si>
+    <t>숲</t>
+  </si>
+  <si>
+    <t>멋쟁이새</t>
+  </si>
+  <si>
+    <t>도시 근교</t>
+  </si>
+  <si>
+    <t>푸른머리되새</t>
+  </si>
+  <si>
+    <t>꽃밭</t>
+  </si>
+  <si>
+    <t>청금강앵무</t>
+  </si>
+  <si>
+    <t>새들의 복귀</t>
+  </si>
+  <si>
+    <t>분홍가슴비둘기</t>
+  </si>
+  <si>
+    <t>염주비둘기</t>
+  </si>
+  <si>
+    <t>홈 근처</t>
+  </si>
+  <si>
+    <t>얼룩비둘기</t>
+  </si>
+  <si>
+    <t>어촌</t>
+  </si>
+  <si>
+    <t>큰홍학</t>
+  </si>
+  <si>
+    <t>물가</t>
+  </si>
+  <si>
     <t>청공작</t>
   </si>
   <si>
-    <t>새들의 복귀</t>
-  </si>
-  <si>
-    <t>분홍가슴비둘기</t>
-  </si>
-  <si>
-    <t>도심</t>
-  </si>
-  <si>
-    <t>얼룩비둘기</t>
-  </si>
-  <si>
-    <t>어촌</t>
-  </si>
-  <si>
-    <t>염주비둘기</t>
-  </si>
-  <si>
-    <t>홈 근처</t>
-  </si>
-  <si>
-    <t>굴뚝새</t>
-  </si>
-  <si>
-    <t>숲</t>
-  </si>
-  <si>
-    <t>꼬까울새</t>
-  </si>
-  <si>
-    <t>노랑배박새</t>
-  </si>
-  <si>
-    <t>온천산</t>
-  </si>
-  <si>
-    <t>멋쟁이새</t>
-  </si>
-  <si>
-    <t>도시 근교</t>
+    <t>청둥오리</t>
   </si>
   <si>
     <t>오목눈이</t>
@@ -521,22 +539,22 @@
     <t>블랑코 머리 위</t>
   </si>
   <si>
-    <t>푸른머리되새</t>
-  </si>
-  <si>
-    <t>꽃밭</t>
-  </si>
-  <si>
-    <t>청금강앵무</t>
-  </si>
-  <si>
-    <t>청둥오리</t>
-  </si>
-  <si>
-    <t>큰홍학</t>
-  </si>
-  <si>
-    <t>물가</t>
+    <t>동고비</t>
+  </si>
+  <si>
+    <t>수염오목눈이</t>
+  </si>
+  <si>
+    <t>빨간머리때까치</t>
+  </si>
+  <si>
+    <t>웡가비둘기</t>
+  </si>
+  <si>
+    <t>분홍목녹색비둘기</t>
+  </si>
+  <si>
+    <t>홍머리오리</t>
   </si>
   <si>
     <t>바다갈매기</t>
@@ -545,55 +563,61 @@
     <t>해변</t>
   </si>
   <si>
-    <t>분홍목녹색비둘기</t>
-  </si>
-  <si>
-    <t>웡가비둘기</t>
-  </si>
-  <si>
-    <t>동고비</t>
-  </si>
-  <si>
-    <t>빨간머리때까치</t>
-  </si>
-  <si>
-    <t>수염오목눈이</t>
-  </si>
-  <si>
-    <t>홍머리오리</t>
+    <t>유럽꾀꼬리</t>
+  </si>
+  <si>
+    <t>녹자작</t>
+  </si>
+  <si>
+    <t>등대</t>
+  </si>
+  <si>
+    <t>검은턱오목눈이</t>
+  </si>
+  <si>
+    <t>점핑 플랫폼</t>
+  </si>
+  <si>
+    <t>홍금강앵무</t>
+  </si>
+  <si>
+    <t>황오리</t>
+  </si>
+  <si>
+    <t>호사북방오리</t>
+  </si>
+  <si>
+    <t>오두앵갈매기</t>
+  </si>
+  <si>
+    <t>고래바다 해변</t>
   </si>
   <si>
     <t>유럽가마우지</t>
   </si>
   <si>
-    <t>오두앵갈매기</t>
-  </si>
-  <si>
-    <t>고래바다 해변</t>
-  </si>
-  <si>
-    <t>검은턱오목눈이</t>
-  </si>
-  <si>
-    <t>점핑 플랫폼</t>
-  </si>
-  <si>
-    <t>녹자작</t>
-  </si>
-  <si>
-    <t>등대</t>
-  </si>
-  <si>
-    <t>유럽꾀꼬리</t>
-  </si>
-  <si>
-    <t>홍금강앵무</t>
-  </si>
-  <si>
-    <t>호사북방오리</t>
-  </si>
-  <si>
-    <t>황오리</t>
+    <t>알락할미새</t>
+  </si>
+  <si>
+    <t>보라빛 해변</t>
+  </si>
+  <si>
+    <t>회색머리붉은참새</t>
+  </si>
+  <si>
+    <t>광장</t>
+  </si>
+  <si>
+    <t>솔양진이</t>
+  </si>
+  <si>
+    <t>숲속 섬</t>
+  </si>
+  <si>
+    <t>노란머리바우어새</t>
+  </si>
+  <si>
+    <t>영혼의 참나무</t>
   </si>
   <si>
     <t>황금과일비둘기</t>
@@ -602,64 +626,52 @@
     <t>풍차꽃밭</t>
   </si>
   <si>
-    <t>노란머리바우어새</t>
-  </si>
-  <si>
-    <t>영혼의 참나무</t>
-  </si>
-  <si>
-    <t>솔양진이</t>
-  </si>
-  <si>
-    <t>숲속 섬</t>
-  </si>
-  <si>
-    <t>알락할미새</t>
-  </si>
-  <si>
-    <t>보라빛 해변</t>
-  </si>
-  <si>
-    <t>회색머리붉은참새</t>
-  </si>
-  <si>
-    <t>광장</t>
+    <t>은계</t>
+  </si>
+  <si>
+    <t>유적</t>
   </si>
   <si>
     <t>흰비오리</t>
   </si>
   <si>
-    <t>은계</t>
-  </si>
-  <si>
-    <t>유적</t>
+    <t>노랑배딱새</t>
+  </si>
+  <si>
+    <t>부두</t>
+  </si>
+  <si>
+    <t>유럽벌잡이새</t>
+  </si>
+  <si>
+    <t>호숫가</t>
+  </si>
+  <si>
+    <t>초록금강앵무</t>
+  </si>
+  <si>
+    <t>올리브비둘기</t>
+  </si>
+  <si>
+    <t>온천</t>
+  </si>
+  <si>
+    <t>작은홍학</t>
   </si>
   <si>
     <t>검정제비갈매기</t>
   </si>
   <si>
-    <t>올리브비둘기</t>
-  </si>
-  <si>
-    <t>온천</t>
-  </si>
-  <si>
-    <t>노랑배딱새</t>
-  </si>
-  <si>
-    <t>부두</t>
-  </si>
-  <si>
-    <t>유럽벌잡이새</t>
-  </si>
-  <si>
-    <t>호숫가</t>
-  </si>
-  <si>
-    <t>초록금강앵무</t>
-  </si>
-  <si>
-    <t>작은홍학</t>
+    <t>콩새</t>
+  </si>
+  <si>
+    <t>화산 호수</t>
+  </si>
+  <si>
+    <t>황금가슴비둘기</t>
+  </si>
+  <si>
+    <t>동쪽 부두</t>
   </si>
   <si>
     <t>붉은뺨가마우지</t>
@@ -674,16 +686,13 @@
     <t>바위절벽</t>
   </si>
   <si>
-    <t>황금가슴비둘기</t>
-  </si>
-  <si>
-    <t>동쪽 부두</t>
-  </si>
-  <si>
-    <t>콩새</t>
-  </si>
-  <si>
-    <t>화산 호수</t>
+    <t>히아신스금강앵무</t>
+  </si>
+  <si>
+    <t>푸른 박새</t>
+  </si>
+  <si>
+    <t>잠부과일비둘기</t>
   </si>
   <si>
     <t>제비갈매기</t>
@@ -695,28 +704,19 @@
     <t>순록탑</t>
   </si>
   <si>
-    <t>잠부과일비둘기</t>
-  </si>
-  <si>
-    <t>푸른 박새</t>
-  </si>
-  <si>
-    <t>히아신스금강앵무</t>
+    <t>동부 파랑새</t>
+  </si>
+  <si>
+    <t>홍방울새</t>
+  </si>
+  <si>
+    <t>분홍비둘기</t>
+  </si>
+  <si>
+    <t>고래산</t>
   </si>
   <si>
     <t>매</t>
-  </si>
-  <si>
-    <t>분홍비둘기</t>
-  </si>
-  <si>
-    <t>고래산</t>
-  </si>
-  <si>
-    <t>동부 파랑새</t>
-  </si>
-  <si>
-    <t>홍방울새</t>
   </si>
   <si>
     <t>황제가마우지</t>
@@ -2269,13 +2269,13 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4">
-        <v>105.0</v>
+        <v>320.0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -2283,23 +2283,25 @@
       <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>1.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
@@ -2311,19 +2313,19 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4">
         <v>1.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4">
-        <v>50.0</v>
+        <v>105.0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -2341,13 +2343,13 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
@@ -2359,13 +2361,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>1.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -2383,13 +2385,13 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4">
         <v>1.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>23</v>
@@ -2413,13 +2415,13 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
@@ -2437,13 +2439,13 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
-        <v>210.0</v>
+        <v>50.0</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
@@ -2461,13 +2463,13 @@
         <v>1.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4">
-        <v>105.0</v>
+        <v>75.0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
@@ -2479,19 +2481,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
         <v>1.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4">
-        <v>50.0</v>
+        <v>210.0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>14</v>
@@ -2503,19 +2505,19 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4">
         <v>1.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4">
-        <v>320.0</v>
+        <v>105.0</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>14</v>
@@ -2523,9 +2525,7 @@
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -2583,13 +2583,13 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4">
-        <v>50.0</v>
+        <v>320.0</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>14</v>
@@ -2597,26 +2597,28 @@
       <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4">
         <v>2.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E23" s="4">
-        <v>320.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>46380.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
@@ -2625,22 +2627,22 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>2.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>14</v>
+        <v>320.0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>46380.0</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
@@ -2655,7 +2657,7 @@
         <v>2.0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>23</v>
@@ -2673,13 +2675,13 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4">
         <v>2.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
@@ -2697,19 +2699,19 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4">
         <v>2.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4">
-        <v>320.0</v>
+        <v>100.0</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>14</v>
@@ -2717,9 +2719,7 @@
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -2729,7 +2729,7 @@
         <v>2.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>23</v>
@@ -2753,7 +2753,7 @@
         <v>3.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
@@ -2801,10 +2801,10 @@
         <v>3.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="4">
         <v>320.0</v>
@@ -2825,7 +2825,7 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -2873,7 +2873,7 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -2897,7 +2897,7 @@
         <v>3.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -2917,20 +2917,20 @@
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>3.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E36" s="4">
-        <v>100.0</v>
+        <v>320.0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>15</v>
@@ -2941,20 +2941,20 @@
       <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>3.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4">
-        <v>100.0</v>
+        <v>155.0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>15</v>
@@ -2963,19 +2963,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4.0</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E38" s="4">
-        <v>320.0</v>
+        <v>150.0</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>14</v>
@@ -2987,22 +2987,22 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="4">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>15</v>
@@ -3011,21 +3011,21 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="F40" s="6" t="s">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -3035,69 +3035,69 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="4">
         <v>4.0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4">
-        <v>100.0</v>
+        <v>230.0</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="4">
         <v>4.0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4">
-        <v>320.0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>46197.0</v>
+        <v>230.0</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="4">
         <v>4.0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E43" s="4">
         <v>230.0</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3107,25 +3107,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="4">
         <v>4.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E44" s="4">
-        <v>320.0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>81</v>
+        <v>150.0</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -3137,16 +3137,16 @@
         <v>4.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E45" s="4">
-        <v>155.0</v>
+        <v>100.0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>15</v>
@@ -3155,61 +3155,61 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="4">
         <v>4.0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E46" s="4">
-        <v>230.0</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>14</v>
+        <v>320.0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>46197.0</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="4">
         <v>4.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E47" s="4">
         <v>230.0</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="4">
         <v>4.0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -3217,8 +3217,8 @@
       <c r="E48" s="4">
         <v>230.0</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>14</v>
+      <c r="F48" s="6">
+        <v>46380.0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>15</v>
@@ -3227,25 +3227,25 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="4">
         <v>4.0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E49" s="4">
-        <v>230.0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>46380.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -3257,19 +3257,19 @@
         <v>5.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E50" s="4">
-        <v>230.0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>46380.0</v>
+        <v>150.0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -3281,19 +3281,19 @@
         <v>5.0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4">
-        <v>320.0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>14</v>
+        <v>230.0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>46380.0</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -3305,7 +3305,7 @@
         <v>5.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>23</v>
@@ -3329,7 +3329,7 @@
         <v>5.0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>23</v>
@@ -3337,8 +3337,8 @@
       <c r="E53" s="4">
         <v>150.0</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>14</v>
+      <c r="F53" s="6">
+        <v>46380.0</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>15</v>
@@ -3353,16 +3353,16 @@
         <v>5.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>46380.0</v>
+        <v>230.0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>15</v>
@@ -3377,16 +3377,16 @@
         <v>5.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E55" s="4">
-        <v>230.0</v>
+        <v>320.0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>15</v>
@@ -3401,7 +3401,7 @@
         <v>6.0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
@@ -3425,7 +3425,7 @@
         <v>6.0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>13</v>
@@ -3473,7 +3473,7 @@
         <v>6.0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>13</v>
@@ -3497,7 +3497,7 @@
         <v>6.0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
@@ -3521,10 +3521,10 @@
         <v>6.0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61" s="4">
         <v>535.0</v>
@@ -3569,7 +3569,7 @@
         <v>7.0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>23</v>
@@ -3578,7 +3578,7 @@
         <v>150.0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>68</v>
@@ -3593,7 +3593,7 @@
         <v>7.0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>23</v>
@@ -3617,19 +3617,19 @@
         <v>7.0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E65" s="4">
-        <v>230.0</v>
+        <v>535.0</v>
       </c>
       <c r="F65" s="6">
-        <v>46197.0</v>
+        <v>46191.0</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -3641,7 +3641,7 @@
         <v>7.0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
@@ -3665,55 +3665,55 @@
         <v>7.0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E67" s="4">
-        <v>535.0</v>
+        <v>230.0</v>
       </c>
       <c r="F67" s="6">
-        <v>46191.0</v>
+        <v>46197.0</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="H67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B68" s="4">
         <v>8.0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E68" s="4">
-        <v>250.0</v>
+        <v>850.0</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="B69" s="4">
         <v>8.0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>23</v>
@@ -3721,11 +3721,11 @@
       <c r="E69" s="4">
         <v>250.0</v>
       </c>
-      <c r="F69" s="6">
-        <v>46197.0</v>
+      <c r="F69" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -3737,7 +3737,7 @@
         <v>8.0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>23</v>
@@ -3754,26 +3754,26 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="4">
         <v>8.0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E71" s="4">
-        <v>230.0</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>83</v>
+        <v>250.0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>46197.0</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H71" s="4"/>
     </row>
@@ -3788,7 +3788,7 @@
         <v>50</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E72" s="4">
         <v>535.0</v>
@@ -3802,50 +3802,50 @@
       <c r="H72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B73" s="4">
         <v>8.0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4">
-        <v>850.0</v>
+        <v>230.0</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B74" s="4">
         <v>9.0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="4">
-        <v>380.0</v>
+        <v>610.0</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H74" s="4"/>
     </row>
@@ -3857,43 +3857,43 @@
         <v>9.0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E75" s="4">
-        <v>610.0</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>70</v>
+        <v>250.0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>46197.0</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="4">
         <v>9.0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E76" s="4">
-        <v>250.0</v>
-      </c>
-      <c r="F76" s="6">
-        <v>46197.0</v>
+        <v>380.0</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H76" s="4"/>
     </row>
@@ -3905,19 +3905,19 @@
         <v>9.0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E77" s="4">
         <v>850.0</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>110</v>
+      <c r="F77" s="6">
+        <v>46191.0</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="H77" s="4"/>
     </row>
@@ -3929,19 +3929,19 @@
         <v>9.0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E78" s="4">
         <v>850.0</v>
       </c>
-      <c r="F78" s="6">
-        <v>46191.0</v>
+      <c r="F78" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -3953,10 +3953,10 @@
         <v>9.0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" s="4">
         <v>850.0</v>
@@ -3977,7 +3977,7 @@
         <v>10.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>13</v>
@@ -4001,7 +4001,7 @@
         <v>10.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>23</v>
@@ -4025,7 +4025,7 @@
         <v>10.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>125</v>
@@ -4048,17 +4048,17 @@
       <c r="B83" s="4">
         <v>10.0</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>52</v>
+      <c r="C83" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E83" s="4">
         <v>850.0</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>70</v>
+      <c r="F83" s="6">
+        <v>46191.0</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>95</v>
@@ -4072,17 +4072,17 @@
       <c r="B84" s="4">
         <v>10.0</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>50</v>
+      <c r="C84" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E84" s="4">
         <v>850.0</v>
       </c>
-      <c r="F84" s="6">
-        <v>46191.0</v>
+      <c r="F84" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>95</v>
@@ -4097,10 +4097,10 @@
         <v>10.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E85" s="4">
         <v>850.0</v>
@@ -4121,7 +4121,7 @@
         <v>11.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
@@ -4130,7 +4130,7 @@
         <v>395.0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>95</v>
@@ -4145,7 +4145,7 @@
         <v>11.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
@@ -4169,7 +4169,7 @@
         <v>11.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>13</v>
@@ -4193,16 +4193,16 @@
         <v>11.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E89" s="4">
         <v>850.0</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>68</v>
@@ -4217,7 +4217,7 @@
         <v>12.0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>13</v>
@@ -4241,7 +4241,7 @@
         <v>12.0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>23</v>
@@ -4265,10 +4265,10 @@
         <v>12.0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E92" s="4">
         <v>850.0</v>
@@ -4292,7 +4292,7 @@
         <v>50</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E93" s="4">
         <v>850.0</v>
@@ -4313,16 +4313,16 @@
         <v>12.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E94" s="4">
         <v>850.0</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>66</v>
@@ -4337,7 +4337,7 @@
         <v>13.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>13</v>
@@ -4346,7 +4346,7 @@
         <v>610.0</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>66</v>
@@ -4370,7 +4370,7 @@
         <v>610.0</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>66</v>
@@ -4385,7 +4385,7 @@
         <v>14.0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>13</v>
@@ -4409,7 +4409,7 @@
         <v>14.0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>23</v>
@@ -4433,7 +4433,7 @@
         <v>143</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="8">
@@ -4455,7 +4455,7 @@
         <v>143</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="8">
@@ -4477,7 +4477,7 @@
         <v>143</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="8">
@@ -4499,7 +4499,7 @@
         <v>143</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="8">
@@ -4674,7 +4674,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
@@ -4686,13 +4686,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" s="10">
         <v>1.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
@@ -4764,7 +4764,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
@@ -4818,7 +4818,7 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
@@ -4830,13 +4830,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
@@ -4848,13 +4848,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="10">
         <v>2.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
@@ -4866,7 +4866,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="10">
         <v>2.0</v>
@@ -4884,13 +4884,13 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="10">
         <v>2.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
@@ -4902,13 +4902,13 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="10">
         <v>2.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
@@ -4920,13 +4920,13 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="10">
         <v>2.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
@@ -4944,7 +4944,7 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
@@ -4962,9 +4962,11 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
         <v>14</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>3.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>186</v>
@@ -5000,11 +5002,9 @@
         <v>3.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
         <v>14</v>
       </c>
@@ -5014,13 +5014,13 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="10">
         <v>3.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
@@ -5032,13 +5032,13 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="10">
         <v>3.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
@@ -5050,13 +5050,13 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="10">
         <v>3.0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="10" t="s">
@@ -5074,7 +5074,7 @@
         <v>3.0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="10" t="s">
@@ -5092,7 +5092,7 @@
         <v>4.0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>194</v>
@@ -5112,7 +5112,7 @@
         <v>4.0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>196</v>
@@ -5121,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -5132,7 +5132,7 @@
         <v>4.0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>198</v>
@@ -5152,7 +5152,7 @@
         <v>4.0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>200</v>
@@ -5172,7 +5172,7 @@
         <v>4.0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>202</v>
@@ -5181,7 +5181,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -5192,10 +5192,10 @@
         <v>4.0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>14</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B36" s="10">
         <v>4.0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>14</v>
@@ -5232,10 +5232,10 @@
         <v>5.0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>14</v>
@@ -5246,42 +5246,40 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" s="10">
         <v>5.0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" s="10">
         <v>5.0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>210</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -5292,7 +5290,7 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>212</v>
@@ -5301,7 +5299,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -5312,14 +5310,16 @@
         <v>5.0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
@@ -5330,16 +5330,16 @@
         <v>5.0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -5350,9 +5350,11 @@
         <v>6.0</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="11"/>
       <c r="E43" s="10" t="s">
         <v>14</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>6.0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>218</v>
@@ -5377,7 +5379,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -5388,11 +5390,9 @@
         <v>6.0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="10" t="s">
         <v>220</v>
       </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="10" t="s">
         <v>14</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>6.0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>222</v>
@@ -5417,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
@@ -5428,16 +5428,14 @@
         <v>7.0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>175</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -5451,24 +5449,24 @@
         <v>160</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="10">
         <v>7.0</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="10" t="s">
@@ -5480,40 +5478,42 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" s="10">
         <v>7.0</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="10">
         <v>7.0</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="E51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -5524,11 +5524,9 @@
         <v>8.0</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="10" t="s">
         <v>14</v>
       </c>
@@ -5544,10 +5542,10 @@
         <v>8.0</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>14</v>
@@ -5558,20 +5556,22 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="10">
         <v>8.0</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>160</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="E54" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -5582,16 +5582,16 @@
         <v>8.0</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
@@ -5620,7 +5620,7 @@
         <v>9.0</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>237</v>
@@ -5640,7 +5640,7 @@
         <v>9.0</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="10" t="s">
@@ -5658,7 +5658,7 @@
         <v>9.0</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>17</v>
@@ -5678,10 +5678,10 @@
         <v>9.0</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>14</v>
@@ -5698,10 +5698,10 @@
         <v>10.0</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>14</v>
@@ -5718,10 +5718,10 @@
         <v>10.0</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>14</v>
@@ -5738,7 +5738,7 @@
         <v>10.0</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>186</v>
@@ -5758,10 +5758,10 @@
         <v>10.0</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>14</v>
@@ -5798,7 +5798,7 @@
         <v>143</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>248</v>
@@ -5818,7 +5818,7 @@
         <v>143</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>248</v>
@@ -5838,7 +5838,7 @@
         <v>143</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>248</v>
@@ -5921,7 +5921,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
@@ -5957,7 +5957,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
@@ -5975,7 +5975,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15" t="s">
@@ -6047,7 +6047,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
@@ -6065,7 +6065,7 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>265</v>
@@ -6105,7 +6105,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
@@ -6141,7 +6141,7 @@
         <v>2.0</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
@@ -6179,7 +6179,7 @@
         <v>2.0</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>265</v>
@@ -6199,7 +6199,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>265</v>
@@ -6219,7 +6219,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>265</v>
@@ -6239,7 +6239,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
@@ -6257,7 +6257,7 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>15</v>
@@ -6293,7 +6293,7 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>280</v>
@@ -6331,7 +6331,7 @@
         <v>3.0</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
@@ -6349,11 +6349,11 @@
         <v>3.0</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>282</v>
@@ -6385,7 +6385,7 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
@@ -6403,7 +6403,7 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>265</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>66</v>
@@ -6441,13 +6441,13 @@
         <v>4.0</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>265</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>282</v>
@@ -6487,7 +6487,7 @@
         <v>280</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>15</v>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>282</v>
@@ -6537,7 +6537,7 @@
         <v>5.0</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
@@ -6555,7 +6555,7 @@
         <v>5.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
@@ -6611,13 +6611,13 @@
         <v>5.0</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>265</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>66</v>
@@ -6651,7 +6651,7 @@
         <v>5.0</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15" t="s">
@@ -6669,7 +6669,7 @@
         <v>6.0</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15" t="s">
@@ -6747,7 +6747,7 @@
         <v>6.0</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="15" t="s">
@@ -6819,7 +6819,7 @@
         <v>7.0</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>280</v>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>95</v>
@@ -6877,7 +6877,7 @@
         <v>143</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
@@ -6895,7 +6895,7 @@
         <v>143</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">

--- a/heartowiki.xlsx
+++ b/heartowiki.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="506">
   <si>
     <t>도감 버전</t>
   </si>
@@ -194,153 +194,156 @@
     <t>머드개복치</t>
   </si>
   <si>
+    <t>6~24</t>
+  </si>
+  <si>
+    <t>바다빙어</t>
+  </si>
+  <si>
+    <t>초원 호수</t>
+  </si>
+  <si>
+    <t>매화농어</t>
+  </si>
+  <si>
+    <t>12~24</t>
+  </si>
+  <si>
+    <t>노란전갱이</t>
+  </si>
+  <si>
+    <t>해마</t>
+  </si>
+  <si>
+    <t>아귀</t>
+  </si>
+  <si>
+    <t>홍합</t>
+  </si>
+  <si>
+    <t>비/무지개</t>
+  </si>
+  <si>
+    <t>민물잰더</t>
+  </si>
+  <si>
+    <t>맑은 날/무지개</t>
+  </si>
+  <si>
+    <t>올챙이</t>
+  </si>
+  <si>
+    <t>유럽민물가재</t>
+  </si>
+  <si>
+    <t>0~12/18~24</t>
+  </si>
+  <si>
+    <t>참문어</t>
+  </si>
+  <si>
+    <t>대서양연어</t>
+  </si>
+  <si>
+    <t>0~6/12~24</t>
+  </si>
+  <si>
+    <t>대서양난쟁이문어</t>
+  </si>
+  <si>
+    <t>소라게</t>
+  </si>
+  <si>
+    <t>흰동가리</t>
+  </si>
+  <si>
+    <t>큰입배스</t>
+  </si>
+  <si>
+    <t>유럽잉어</t>
+  </si>
+  <si>
+    <t>민물대구</t>
+  </si>
+  <si>
+    <t>망둥어</t>
+  </si>
+  <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>민물게</t>
+  </si>
+  <si>
+    <t>대문짝넙치</t>
+  </si>
+  <si>
+    <t>유럽가자미</t>
+  </si>
+  <si>
+    <t>0~6/18~24</t>
+  </si>
+  <si>
+    <t>레드벨리피라냐</t>
+  </si>
+  <si>
+    <t>나비잉어</t>
+  </si>
+  <si>
+    <t>민물베도라치</t>
+  </si>
+  <si>
+    <t>송어</t>
+  </si>
+  <si>
+    <t>루드</t>
+  </si>
+  <si>
+    <t>대서양고등어</t>
+  </si>
+  <si>
+    <t>유럽가재</t>
+  </si>
+  <si>
+    <t>유럽날오징어</t>
+  </si>
+  <si>
+    <t>큰진주조개</t>
+  </si>
+  <si>
+    <t>무지개</t>
+  </si>
+  <si>
+    <t>복어</t>
+  </si>
+  <si>
+    <t>첨 연어</t>
+  </si>
+  <si>
+    <t>사루기</t>
+  </si>
+  <si>
+    <t>등불성대</t>
+  </si>
+  <si>
+    <t>두툽상어</t>
+  </si>
+  <si>
+    <t>큰가시고기</t>
+  </si>
+  <si>
+    <t>얕은 강</t>
+  </si>
+  <si>
+    <t>줄무늬송사리</t>
+  </si>
+  <si>
+    <t>둑중개</t>
+  </si>
+  <si>
     <t>6-24</t>
   </si>
   <si>
-    <t>바다빙어</t>
-  </si>
-  <si>
-    <t>초원 호수</t>
-  </si>
-  <si>
-    <t>매화농어</t>
-  </si>
-  <si>
-    <t>12-24</t>
-  </si>
-  <si>
-    <t>노란전갱이</t>
-  </si>
-  <si>
-    <t>해마</t>
-  </si>
-  <si>
-    <t>아귀</t>
-  </si>
-  <si>
-    <t>홍합</t>
-  </si>
-  <si>
-    <t>비/무지개</t>
-  </si>
-  <si>
-    <t>민물잰더</t>
-  </si>
-  <si>
-    <t>맑은 날/무지개</t>
-  </si>
-  <si>
-    <t>올챙이</t>
-  </si>
-  <si>
-    <t>유럽민물가재</t>
-  </si>
-  <si>
-    <t>0-12/18-24</t>
-  </si>
-  <si>
-    <t>참문어</t>
-  </si>
-  <si>
-    <t>대서양연어</t>
-  </si>
-  <si>
-    <t>0-6/12-24</t>
-  </si>
-  <si>
-    <t>대서양난쟁이문어</t>
-  </si>
-  <si>
-    <t>소라게</t>
-  </si>
-  <si>
-    <t>흰동가리</t>
-  </si>
-  <si>
-    <t>큰입배스</t>
-  </si>
-  <si>
-    <t>유럽잉어</t>
-  </si>
-  <si>
-    <t>민물대구</t>
-  </si>
-  <si>
-    <t>망둥어</t>
-  </si>
-  <si>
-    <t>6-18</t>
-  </si>
-  <si>
-    <t>민물게</t>
-  </si>
-  <si>
-    <t>대문짝넙치</t>
-  </si>
-  <si>
-    <t>유럽가자미</t>
-  </si>
-  <si>
-    <t>0-6/18-24</t>
-  </si>
-  <si>
-    <t>레드벨리피라냐</t>
-  </si>
-  <si>
-    <t>나비잉어</t>
-  </si>
-  <si>
-    <t>민물베도라치</t>
-  </si>
-  <si>
-    <t>송어</t>
-  </si>
-  <si>
-    <t>루드</t>
-  </si>
-  <si>
-    <t>대서양고등어</t>
-  </si>
-  <si>
-    <t>유럽가재</t>
-  </si>
-  <si>
-    <t>유럽날오징어</t>
-  </si>
-  <si>
-    <t>큰진주조개</t>
-  </si>
-  <si>
-    <t>무지개</t>
-  </si>
-  <si>
-    <t>복어</t>
-  </si>
-  <si>
-    <t>첨 연어</t>
-  </si>
-  <si>
-    <t>사루기</t>
-  </si>
-  <si>
-    <t>등불성대</t>
-  </si>
-  <si>
-    <t>두툽상어</t>
-  </si>
-  <si>
-    <t>큰가시고기</t>
-  </si>
-  <si>
-    <t>얕은 강</t>
-  </si>
-  <si>
-    <t>줄무늬송사리</t>
-  </si>
-  <si>
-    <t>둑중개</t>
-  </si>
-  <si>
     <t>산갈치</t>
   </si>
   <si>
@@ -383,9 +386,15 @@
     <t>참다랑어</t>
   </si>
   <si>
+    <t>6~18</t>
+  </si>
+  <si>
     <t>개복치</t>
   </si>
   <si>
+    <t>0~12</t>
+  </si>
+  <si>
     <t>붉은개복치</t>
   </si>
   <si>
@@ -929,7 +938,7 @@
     <t>신선나비</t>
   </si>
   <si>
-    <t>0-18</t>
+    <t>0~18</t>
   </si>
   <si>
     <t>흰마녀밤나방</t>
@@ -953,7 +962,7 @@
     <t>녹색날개호랑나비</t>
   </si>
   <si>
-    <t>0-6/18-0</t>
+    <t>0~6/18~0</t>
   </si>
   <si>
     <t>산악사슴벌레</t>
@@ -1731,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1785,6 +1794,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -3620,7 +3632,7 @@
         <v>150.0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>68</v>
@@ -3629,7 +3641,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" s="6">
         <v>7.0</v>
@@ -3653,7 +3665,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" s="6">
         <v>7.0</v>
@@ -3677,7 +3689,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="6">
         <v>7.0</v>
@@ -3692,7 +3704,7 @@
         <v>230.0</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>98</v>
@@ -3701,7 +3713,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" s="6">
         <v>8.0</v>
@@ -3725,7 +3737,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6">
         <v>8.0</v>
@@ -3740,7 +3752,7 @@
         <v>250.0</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>70</v>
@@ -3749,7 +3761,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="6">
         <v>8.0</v>
@@ -3773,7 +3785,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="6">
         <v>8.0</v>
@@ -3797,7 +3809,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="6">
         <v>8.0</v>
@@ -3821,7 +3833,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="6">
         <v>8.0</v>
@@ -3845,7 +3857,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B74" s="6">
         <v>9.0</v>
@@ -3869,7 +3881,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B75" s="6">
         <v>9.0</v>
@@ -3893,7 +3905,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B76" s="6">
         <v>9.0</v>
@@ -3917,7 +3929,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B77" s="6">
         <v>9.0</v>
@@ -3932,7 +3944,7 @@
         <v>850.0</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>98</v>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="6">
         <v>9.0</v>
@@ -3956,7 +3968,7 @@
         <v>850.0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>15</v>
@@ -3965,7 +3977,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B79" s="6">
         <v>9.0</v>
@@ -3989,7 +4001,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B80" s="6">
         <v>10.0</v>
@@ -4013,7 +4025,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B81" s="6">
         <v>10.0</v>
@@ -4037,7 +4049,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B82" s="6">
         <v>10.0</v>
@@ -4046,7 +4058,7 @@
         <v>32</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E82" s="6">
         <v>610.0</v>
@@ -4061,7 +4073,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83" s="6">
         <v>10.0</v>
@@ -4076,7 +4088,7 @@
         <v>850.0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>98</v>
@@ -4085,7 +4097,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B84" s="6">
         <v>10.0</v>
@@ -4109,7 +4121,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B85" s="6">
         <v>10.0</v>
@@ -4124,7 +4136,7 @@
         <v>850.0</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>98</v>
@@ -4133,7 +4145,7 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B86" s="6">
         <v>11.0</v>
@@ -4157,7 +4169,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" s="6">
         <v>11.0</v>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B88" s="6">
         <v>11.0</v>
@@ -4205,7 +4217,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B89" s="6">
         <v>11.0</v>
@@ -4229,7 +4241,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90" s="6">
         <v>12.0</v>
@@ -4253,7 +4265,7 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" s="6">
         <v>12.0</v>
@@ -4277,7 +4289,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" s="6">
         <v>12.0</v>
@@ -4292,7 +4304,7 @@
         <v>850.0</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>98</v>
@@ -4301,7 +4313,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B93" s="6">
         <v>12.0</v>
@@ -4325,7 +4337,7 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B94" s="6">
         <v>12.0</v>
@@ -4349,7 +4361,7 @@
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B95" s="6">
         <v>13.0</v>
@@ -4373,7 +4385,7 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B96" s="6">
         <v>13.0</v>
@@ -4388,7 +4400,7 @@
         <v>610.0</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>68</v>
@@ -4397,7 +4409,7 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97" s="6">
         <v>14.0</v>
@@ -4421,7 +4433,7 @@
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B98" s="6">
         <v>14.0</v>
@@ -4445,10 +4457,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>53</v>
@@ -4467,10 +4479,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>53</v>
@@ -4489,10 +4501,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>53</v>
@@ -4511,10 +4523,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>53</v>
@@ -4533,13 +4545,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="11">
@@ -4552,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
@@ -7276,7 +7288,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>8</v>
@@ -7287,13 +7299,13 @@
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B2" s="13">
         <v>1.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
@@ -7305,13 +7317,13 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
@@ -7323,13 +7335,13 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B4" s="13">
         <v>1.0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13" t="s">
@@ -7341,13 +7353,13 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
@@ -7359,13 +7371,13 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" s="13">
         <v>1.0</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
@@ -7377,13 +7389,13 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B7" s="13">
         <v>1.0</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
@@ -7395,13 +7407,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B8" s="13">
         <v>1.0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
@@ -7413,13 +7425,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B9" s="13">
         <v>1.0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="13" t="s">
@@ -7431,13 +7443,13 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B10" s="13">
         <v>1.0</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
@@ -7449,13 +7461,13 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" s="13">
         <v>1.0</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
@@ -7467,13 +7479,13 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B12" s="13">
         <v>1.0</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
@@ -7485,7 +7497,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B13" s="13">
         <v>1.0</v>
@@ -7503,13 +7515,13 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B14" s="13">
         <v>1.0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="13" t="s">
@@ -7521,13 +7533,13 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B15" s="13">
         <v>2.0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="13" t="s">
@@ -7539,13 +7551,13 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B16" s="13">
         <v>2.0</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
@@ -7557,13 +7569,13 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B17" s="13">
         <v>2.0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="13" t="s">
@@ -7575,13 +7587,13 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" s="13">
         <v>2.0</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
@@ -7593,13 +7605,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" s="13">
         <v>2.0</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="13" t="s">
@@ -7611,7 +7623,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B20" s="13">
         <v>2.0</v>
@@ -7629,13 +7641,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B21" s="13">
         <v>2.0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="13" t="s">
@@ -7647,13 +7659,13 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B22" s="13">
         <v>3.0</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
@@ -7665,16 +7677,16 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B23" s="13">
         <v>3.0</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>14</v>
@@ -7685,16 +7697,16 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B24" s="13">
         <v>3.0</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>14</v>
@@ -7705,13 +7717,13 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B25" s="13">
         <v>3.0</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="13" t="s">
@@ -7723,7 +7735,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B26" s="13">
         <v>3.0</v>
@@ -7741,7 +7753,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B27" s="13">
         <v>3.0</v>
@@ -7759,13 +7771,13 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="13">
         <v>3.0</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
@@ -7777,7 +7789,7 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B29" s="13">
         <v>3.0</v>
@@ -7795,16 +7807,16 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B30" s="13">
         <v>4.0</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>14</v>
@@ -7815,16 +7827,16 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B31" s="13">
         <v>4.0</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>14</v>
@@ -7835,16 +7847,16 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B32" s="13">
         <v>4.0</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>14</v>
@@ -7855,16 +7867,16 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B33" s="13">
         <v>4.0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>14</v>
@@ -7875,16 +7887,16 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B34" s="13">
         <v>4.0</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>14</v>
@@ -7895,16 +7907,16 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B35" s="13">
         <v>4.0</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>14</v>
@@ -7915,13 +7927,13 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B36" s="13">
         <v>4.0</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>17</v>
@@ -7935,16 +7947,16 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B37" s="13">
         <v>5.0</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>14</v>
@@ -7955,16 +7967,16 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B38" s="13">
         <v>5.0</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>14</v>
@@ -7975,13 +7987,13 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B39" s="13">
         <v>5.0</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="13" t="s">
@@ -7993,16 +8005,16 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B40" s="13">
         <v>5.0</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>14</v>
@@ -8013,16 +8025,16 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B41" s="13">
         <v>5.0</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>14</v>
@@ -8033,7 +8045,7 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B42" s="13">
         <v>5.0</v>
@@ -8042,7 +8054,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>14</v>
@@ -8053,16 +8065,16 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B43" s="13">
         <v>6.0</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -8073,16 +8085,16 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B44" s="13">
         <v>6.0</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>14</v>
@@ -8093,13 +8105,13 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B45" s="13">
         <v>6.0</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="13" t="s">
@@ -8111,16 +8123,16 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B46" s="13">
         <v>6.0</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>14</v>
@@ -8131,13 +8143,13 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B47" s="13">
         <v>7.0</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
@@ -8149,16 +8161,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B48" s="13">
         <v>7.0</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>14</v>
@@ -8169,13 +8181,13 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B49" s="13">
         <v>7.0</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="13" t="s">
@@ -8187,7 +8199,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B50" s="13">
         <v>7.0</v>
@@ -8196,7 +8208,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>14</v>
@@ -8207,16 +8219,16 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B51" s="13">
         <v>7.0</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>14</v>
@@ -8227,13 +8239,13 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B52" s="13">
         <v>8.0</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
@@ -8245,16 +8257,16 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B53" s="13">
         <v>8.0</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>14</v>
@@ -8265,16 +8277,16 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B54" s="13">
         <v>8.0</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>14</v>
@@ -8285,16 +8297,16 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B55" s="13">
         <v>8.0</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>14</v>
@@ -8305,13 +8317,13 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B56" s="13">
         <v>9.0</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
@@ -8323,16 +8335,16 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B57" s="13">
         <v>9.0</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>14</v>
@@ -8343,13 +8355,13 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B58" s="13">
         <v>9.0</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="13" t="s">
@@ -8361,13 +8373,13 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B59" s="13">
         <v>9.0</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>17</v>
@@ -8381,16 +8393,16 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B60" s="13">
         <v>9.0</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>14</v>
@@ -8401,16 +8413,16 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B61" s="13">
         <v>10.0</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>14</v>
@@ -8421,16 +8433,16 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B62" s="13">
         <v>10.0</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>14</v>
@@ -8441,16 +8453,16 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B63" s="13">
         <v>10.0</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>14</v>
@@ -8461,16 +8473,16 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B64" s="13">
         <v>10.0</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>14</v>
@@ -8481,16 +8493,16 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>14</v>
@@ -8501,16 +8513,16 @@
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>14</v>
@@ -8521,16 +8533,16 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>14</v>
@@ -8541,16 +8553,16 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>14</v>
@@ -8561,16 +8573,16 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>14</v>
@@ -8613,7 +8625,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>8</v>
@@ -8624,13 +8636,13 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B2" s="16">
         <v>1.0</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="19" t="s">
@@ -8642,13 +8654,13 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B3" s="16">
         <v>1.0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
@@ -8660,13 +8672,13 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B4" s="16">
         <v>1.0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
@@ -8678,13 +8690,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B5" s="16">
         <v>1.0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
@@ -8696,13 +8708,13 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B6" s="16">
         <v>1.0</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
@@ -8714,13 +8726,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B7" s="16">
         <v>1.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19" t="s">
@@ -8732,13 +8744,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B8" s="16">
         <v>1.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -8750,13 +8762,13 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B9" s="16">
         <v>1.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -8768,16 +8780,16 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B10" s="16">
         <v>1.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>14</v>
@@ -8788,16 +8800,16 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" s="16">
         <v>1.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>14</v>
@@ -8808,13 +8820,13 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B12" s="16">
         <v>1.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -8826,13 +8838,13 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B13" s="16">
         <v>2.0</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -8844,13 +8856,13 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B14" s="16">
         <v>2.0</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -8862,16 +8874,16 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B15" s="16">
         <v>2.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>14</v>
@@ -8882,16 +8894,16 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B16" s="16">
         <v>2.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>14</v>
@@ -8902,16 +8914,16 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B17" s="16">
         <v>2.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>14</v>
@@ -8922,16 +8934,16 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B18" s="16">
         <v>2.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>14</v>
@@ -8942,7 +8954,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B19" s="16">
         <v>2.0</v>
@@ -8960,13 +8972,13 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B20" s="16">
         <v>2.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19" t="s">
@@ -8978,16 +8990,16 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B21" s="16">
         <v>3.0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="18" t="s">
@@ -8996,33 +9008,33 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B22" s="16">
         <v>3.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B23" s="16">
         <v>3.0</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="19" t="s">
@@ -9034,13 +9046,13 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B24" s="16">
         <v>3.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="19" t="s">
@@ -9052,31 +9064,31 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16">
         <v>3.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B26" s="16">
         <v>3.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="19" t="s">
@@ -9088,13 +9100,13 @@
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B27" s="16">
         <v>3.0</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="19" t="s">
@@ -9106,18 +9118,18 @@
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B28" s="16">
         <v>3.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -9126,16 +9138,16 @@
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B29" s="16">
         <v>4.0</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="18" t="s">
@@ -9144,36 +9156,36 @@
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B30" s="16">
         <v>4.0</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B31" s="16">
         <v>4.0</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>14</v>
@@ -9184,18 +9196,18 @@
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B32" s="16">
         <v>4.0</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -9204,13 +9216,13 @@
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B33" s="16">
         <v>4.0</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="19" t="s">
@@ -9222,31 +9234,31 @@
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B34" s="16">
         <v>4.0</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B35" s="16">
         <v>5.0</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="19" t="s">
@@ -9258,52 +9270,52 @@
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B36" s="16">
         <v>5.0</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="19" t="s">
-        <v>304</v>
+      <c r="E36" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B37" s="16">
         <v>5.0</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B38" s="16">
         <v>5.0</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>14</v>
@@ -9314,18 +9326,18 @@
     </row>
     <row r="39">
       <c r="A39" s="18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B39" s="16">
         <v>5.0</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="18" t="s">
@@ -9334,55 +9346,55 @@
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B40" s="16">
         <v>5.0</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B41" s="16">
         <v>5.0</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B42" s="16">
         <v>6.0</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="19" t="s">
-        <v>312</v>
+      <c r="E42" s="20" t="s">
+        <v>315</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>15</v>
@@ -9390,18 +9402,18 @@
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B43" s="16">
         <v>6.0</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E43" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -9410,39 +9422,39 @@
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B44" s="16">
         <v>6.0</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>304</v>
+        <v>285</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B45" s="16">
         <v>6.0</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>84</v>
+        <v>270</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>15</v>
@@ -9450,7 +9462,7 @@
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B46" s="16">
         <v>6.0</v>
@@ -9468,13 +9480,13 @@
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B47" s="16">
         <v>7.0</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
@@ -9486,16 +9498,16 @@
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B48" s="16">
         <v>7.0</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="18" t="s">
@@ -9504,17 +9516,17 @@
     </row>
     <row r="49">
       <c r="A49" s="18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B49" s="16">
         <v>7.0</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D49" s="18"/>
-      <c r="E49" s="19" t="s">
-        <v>304</v>
+      <c r="E49" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>15</v>
@@ -9522,19 +9534,19 @@
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B50" s="16">
         <v>7.0</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>84</v>
+        <v>285</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>68</v>
@@ -9542,36 +9554,36 @@
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B51" s="16">
         <v>7.0</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="18" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B52" s="16">
         <v>7.0</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -9580,13 +9592,13 @@
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
@@ -9598,13 +9610,13 @@
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="19" t="s">
@@ -9616,13 +9628,13 @@
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="19" t="s">
@@ -9634,13 +9646,13 @@
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="19" t="s">
@@ -9652,16 +9664,16 @@
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>200</v>
+        <v>148</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>14</v>
@@ -12502,10 +12514,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -12515,1251 +12527,1251 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="A2" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="23">
         <v>1.0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="22">
         <v>20.0</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="23">
         <v>1.0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="22">
         <v>30.0</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="23">
         <v>1.0</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="C4" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="23">
         <v>160.0</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="23">
         <v>1.0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="23">
         <v>250.0</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="22">
+      <c r="E6" s="23">
+        <v>180.0</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="23">
         <v>1.0</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C7" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="23">
+        <v>170.0</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="23">
+        <v>270.0</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="23">
+        <v>270.0</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1580.0</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="23">
+        <v>280.0</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2020.0</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="23">
+        <v>310.0</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="23">
+        <v>480.0</v>
+      </c>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="23">
         <v>180.0</v>
       </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="23">
         <v>1.0</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="22">
-        <v>170.0</v>
-      </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="C17" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="23">
+        <v>180.0</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="23">
         <v>1.0</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="22">
-        <v>270.0</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="C18" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="23">
+        <v>180.0</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="23">
         <v>1.0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="22">
-        <v>270.0</v>
-      </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="C19" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="23">
+        <v>180.0</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="23">
         <v>1.0</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1580.0</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="C20" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="23">
+        <v>180.0</v>
+      </c>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="23">
         <v>1.0</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="C21" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="23">
+        <v>500.0</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="23">
+        <v>500.0</v>
+      </c>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="23">
+        <v>500.0</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="23">
+        <v>500.0</v>
+      </c>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="23">
+        <v>500.0</v>
+      </c>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="23">
+        <v>830.0</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="23">
+        <v>550.0</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="23">
+        <v>670.0</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="23">
+        <v>670.0</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="23">
+        <v>670.0</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="23">
+        <v>670.0</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="23">
+        <v>570.0</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="23">
+        <v>570.0</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="23">
+        <v>570.0</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E35" s="23">
+        <v>290.0</v>
+      </c>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E36" s="23">
+        <v>300.0</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B37" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="23">
+        <v>520.0</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="23">
+        <v>490.0</v>
+      </c>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="23">
+        <v>640.0</v>
+      </c>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B40" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="23">
+        <v>900.0</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="23">
+        <v>780.0</v>
+      </c>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B42" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="E42" s="23">
+        <v>670.0</v>
+      </c>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B43" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="23">
+        <v>730.0</v>
+      </c>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="23">
+        <v>840.0</v>
+      </c>
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B45" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="23">
+        <v>1340.0</v>
+      </c>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B46" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="23">
+        <v>410.0</v>
+      </c>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="23">
+        <v>530.0</v>
+      </c>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="23">
+        <v>2260.0</v>
+      </c>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="E49" s="23">
+        <v>710.0</v>
+      </c>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="23">
+        <v>850.0</v>
+      </c>
+      <c r="F50" s="24"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E51" s="23">
+        <v>1310.0</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1350.0</v>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E53" s="23">
+        <v>1760.0</v>
+      </c>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E54" s="23">
+        <v>1230.0</v>
+      </c>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E55" s="26">
+        <v>1990.0</v>
+      </c>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E56" s="26">
+        <v>2980.0</v>
+      </c>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E57" s="23">
         <v>280.0</v>
       </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2020.0</v>
-      </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="22">
-        <v>90.0</v>
-      </c>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="22">
-        <v>310.0</v>
-      </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E15" s="22">
-        <v>480.0</v>
-      </c>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E16" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E19" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E20" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="B21" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="22">
-        <v>500.0</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="B22" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="22">
-        <v>500.0</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="22">
-        <v>500.0</v>
-      </c>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="B24" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E24" s="22">
-        <v>500.0</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" s="22">
-        <v>500.0</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B26" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="22">
-        <v>830.0</v>
-      </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B27" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="22">
-        <v>550.0</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B28" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E28" s="22">
-        <v>670.0</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E29" s="22">
-        <v>670.0</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="B30" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E30" s="22">
-        <v>670.0</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="B31" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E31" s="22">
-        <v>670.0</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="B32" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E32" s="22">
-        <v>570.0</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B33" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E33" s="22">
-        <v>570.0</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="E34" s="22">
-        <v>570.0</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="B35" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E35" s="22">
-        <v>290.0</v>
-      </c>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B36" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E36" s="22">
-        <v>300.0</v>
-      </c>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E37" s="22">
-        <v>520.0</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B38" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E38" s="22">
-        <v>490.0</v>
-      </c>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="B39" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="E39" s="22">
-        <v>640.0</v>
-      </c>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B40" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="E40" s="22">
-        <v>900.0</v>
-      </c>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B41" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="22">
-        <v>780.0</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E42" s="22">
-        <v>670.0</v>
-      </c>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="B43" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="22">
-        <v>730.0</v>
-      </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="B44" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E44" s="22">
-        <v>840.0</v>
-      </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="B45" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E45" s="22">
-        <v>1340.0</v>
-      </c>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="B46" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E46" s="22">
-        <v>410.0</v>
-      </c>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="E47" s="22">
-        <v>530.0</v>
-      </c>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E48" s="22">
-        <v>2260.0</v>
-      </c>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="B49" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E49" s="22">
-        <v>710.0</v>
-      </c>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="B50" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E50" s="22">
-        <v>850.0</v>
-      </c>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="B51" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E51" s="22">
-        <v>1310.0</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="B52" s="22">
-        <v>8.0</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="E52" s="22">
-        <v>1350.0</v>
-      </c>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="B53" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E53" s="22">
-        <v>1760.0</v>
-      </c>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E54" s="22">
-        <v>1230.0</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B55" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="E55" s="25">
-        <v>1990.0</v>
-      </c>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="B56" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="E56" s="25">
-        <v>2980.0</v>
-      </c>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="F57" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E58" s="23">
         <v>280.0</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="E58" s="22">
-        <v>280.0</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>470</v>
+      <c r="F58" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E59" s="23">
+        <v>630.0</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="E59" s="22">
-        <v>630.0</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="A60" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" s="23">
         <v>340.0</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>470</v>
+      <c r="F60" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="A61" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E61" s="23">
         <v>330.0</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>470</v>
+      <c r="F61" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="A62" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" s="23">
         <v>330.0</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>470</v>
+      <c r="F62" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E63" s="22">
+      <c r="E63" s="23">
         <v>350.0</v>
       </c>
-      <c r="F63" s="22" t="s">
-        <v>470</v>
+      <c r="F63" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E64" s="22">
+      <c r="A64" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" s="23">
         <v>360.0</v>
       </c>
-      <c r="F64" s="22" t="s">
-        <v>470</v>
+      <c r="F64" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E65" s="22">
+      <c r="A65" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E65" s="23">
         <v>360.0</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>470</v>
+      <c r="F65" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E66" s="22">
+      <c r="A66" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E66" s="23">
         <v>1630.0</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>470</v>
+      <c r="F66" s="23" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="E67" s="22">
+      <c r="A67" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E67" s="23">
         <v>130.0</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>496</v>
+      <c r="F67" s="23" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="A68" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="B68" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>502</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
